--- a/2022-August.xlsx
+++ b/2022-August.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/a-xiaobodou_microsoft_com/Documents/Projects/ASP.NET/Breakfast Cards Manage System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/a-xiaobodou_microsoft_com/Documents/Projects/ASP.NET/BreakfastCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{155DB79A-57F6-449A-A62B-5CC8D7392AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C5B079-D7FB-4325-923E-9E4E98C64461}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{155DB79A-57F6-449A-A62B-5CC8D7392AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C11F2978-A231-4322-A700-35A24D6BA467}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{02BBD4B3-7C66-488C-8886-053EB8080723}"/>
+    <workbookView xWindow="12240" yWindow="-11565" windowWidth="16905" windowHeight="10455" xr2:uid="{02BBD4B3-7C66-488C-8886-053EB8080723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Group Name</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>SharePoint</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>罗</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>葛</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>邓</t>
+  </si>
+  <si>
+    <t>白</t>
   </si>
 </sst>
 </file>
@@ -138,10 +165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F99EF5-49C8-4386-9E6A-13999F6B398C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -452,7 +475,7 @@
     <col min="1" max="1" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,76 +483,271 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/2022-August.xlsx
+++ b/2022-August.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/a-xiaobodou_microsoft_com/Documents/Projects/ASP.NET/Breakfast Cards Manage System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/a-xiaobodou_microsoft_com/Documents/Projects/ASP.NET/BreakfastCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{155DB79A-57F6-449A-A62B-5CC8D7392AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C5B079-D7FB-4325-923E-9E4E98C64461}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{02BBD4B3-7C66-488C-8886-053EB8080723}"/>
+    <workbookView xWindow="3885" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{02BBD4B3-7C66-488C-8886-053EB8080723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +440,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
